--- a/data/trans_orig/P33b_R5-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R5-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76AD6183-16E1-47C7-B006-E251764FFD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14858F72-C8E8-4EB4-886E-851D0175F828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{91B4FB7C-4C6A-4D4C-9353-42058426A7F6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AF29B438-76F5-4CEE-8715-A112228EED0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
   <si>
     <t>Población que toma algún remedio para dormir (no medicamentos) en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,68%</t>
+    <t>6,34%</t>
   </si>
   <si>
     <t>3,83%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>98,18%</t>
   </si>
   <si>
-    <t>93,32%</t>
+    <t>93,66%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -113,19 +113,19 @@
     <t>96,17%</t>
   </si>
   <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
   </si>
   <si>
     <t>97,21%</t>
   </si>
   <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>0,93%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
   </si>
   <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
   </si>
   <si>
     <t>97,04%</t>
   </si>
   <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
   </si>
   <si>
     <t>97,98%</t>
   </si>
   <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>4,03%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
   </si>
   <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
   </si>
   <si>
     <t>5,17%</t>
   </si>
   <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
   </si>
   <si>
     <t>95,97%</t>
   </si>
   <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
   </si>
   <si>
     <t>93,74%</t>
   </si>
   <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
   </si>
   <si>
     <t>94,83%</t>
   </si>
   <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,100 +251,106 @@
     <t>5,06%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
   </si>
   <si>
     <t>10,18%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
   </si>
   <si>
     <t>7,66%</t>
   </si>
   <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
   </si>
   <si>
     <t>94,94%</t>
   </si>
   <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>89,82%</t>
   </si>
   <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
   </si>
   <si>
     <t>92,34%</t>
   </si>
   <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
   </si>
   <si>
     <t>55/64</t>
   </si>
   <si>
-    <t>12,86%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
   </si>
   <si>
     <t>19,88%</t>
   </si>
   <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
   </si>
   <si>
     <t>15,02%</t>
   </si>
   <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
   </si>
   <si>
     <t>80,12%</t>
   </si>
   <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
   </si>
   <si>
     <t>84,98%</t>
   </si>
   <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -353,16 +359,16 @@
     <t>15,58%</t>
   </si>
   <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
   </si>
   <si>
     <t>21,7%</t>
   </si>
   <si>
-    <t>15,45%</t>
+    <t>14,81%</t>
   </si>
   <si>
     <t>25,04%</t>
@@ -371,19 +377,19 @@
     <t>19,22%</t>
   </si>
   <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
   </si>
   <si>
     <t>84,42%</t>
   </si>
   <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
   </si>
   <si>
     <t>78,3%</t>
@@ -392,70 +398,70 @@
     <t>74,96%</t>
   </si>
   <si>
-    <t>84,55%</t>
+    <t>85,19%</t>
   </si>
   <si>
     <t>80,78%</t>
   </si>
   <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
   </si>
   <si>
     <t>7,08%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
   </si>
   <si>
     <t>12,66%</t>
   </si>
   <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
   </si>
   <si>
     <t>10,03%</t>
   </si>
   <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
   </si>
   <si>
     <t>92,92%</t>
   </si>
   <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
   </si>
   <si>
     <t>87,34%</t>
   </si>
   <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
   </si>
   <si>
     <t>89,97%</t>
   </si>
   <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -870,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F7DB2C-D81B-403B-BE6B-948888E4332E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD64D93-6BBE-4C45-91B3-5609FB812F89}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1617,10 +1623,10 @@
         <v>73</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>191</v>
@@ -1629,13 +1635,13 @@
         <v>118176</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>254</v>
@@ -1644,13 +1650,13 @@
         <v>179056</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,10 +1674,10 @@
         <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>810</v>
@@ -1680,13 +1686,13 @@
         <v>476125</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1408</v>
@@ -1695,13 +1701,13 @@
         <v>1013254</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,7 +1763,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1769,13 +1775,13 @@
         <v>108677</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>394</v>
@@ -1784,13 +1790,13 @@
         <v>222497</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>555</v>
@@ -1799,13 +1805,13 @@
         <v>331174</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,16 +1823,16 @@
         <v>867</v>
       </c>
       <c r="D20" s="7">
-        <v>589077</v>
+        <v>589078</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>1312</v>
@@ -1835,13 +1841,13 @@
         <v>802859</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>2179</v>
@@ -1850,13 +1856,13 @@
         <v>1391936</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,7 +1874,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1924,13 +1930,13 @@
         <v>239477</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>763</v>
@@ -1939,13 +1945,13 @@
         <v>481577</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>1045</v>
@@ -1954,13 +1960,13 @@
         <v>721054</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,13 +1981,13 @@
         <v>3143603</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>4597</v>
@@ -1990,28 +1996,28 @@
         <v>3321944</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>7689</v>
       </c>
       <c r="N23" s="7">
-        <v>6465547</v>
+        <v>6465548</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2053,7 +2059,7 @@
         <v>8734</v>
       </c>
       <c r="N24" s="7">
-        <v>7186601</v>
+        <v>7186602</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2067,7 +2073,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R5-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R5-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14858F72-C8E8-4EB4-886E-851D0175F828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FABD41CA-C24D-4F6D-A078-F218E96EF78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AF29B438-76F5-4CEE-8715-A112228EED0E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5DE08AAB-9633-4B30-A3DC-10D1C53E65B8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -876,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD64D93-6BBE-4C45-91B3-5609FB812F89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8468DA35-391F-4F7B-806E-D1677202B05B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33b_R5-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R5-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FABD41CA-C24D-4F6D-A078-F218E96EF78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECC7E2D4-C343-4055-AFA8-D45659F1653B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5DE08AAB-9633-4B30-A3DC-10D1C53E65B8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B0C5C9FB-89AB-4404-A31A-74653B975C4E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
   <si>
     <t>Población que toma algún remedio para dormir (no medicamentos) en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,34%</t>
+    <t>6,68%</t>
   </si>
   <si>
     <t>3,83%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>98,18%</t>
   </si>
   <si>
-    <t>93,66%</t>
+    <t>93,32%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -113,19 +113,19 @@
     <t>96,17%</t>
   </si>
   <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
   </si>
   <si>
     <t>97,21%</t>
   </si>
   <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,220 +137,214 @@
     <t>0,93%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>1,16%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>5,06%</t>
   </si>
   <si>
     <t>3,19%</t>
   </si>
   <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
   </si>
   <si>
     <t>96,81%</t>
   </si>
   <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
     <t>89,82%</t>
   </si>
   <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
   </si>
   <si>
     <t>92,34%</t>
   </si>
   <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
   </si>
   <si>
     <t>55/64</t>
   </si>
   <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
+    <t>12,86%</t>
   </si>
   <si>
     <t>19,88%</t>
   </si>
   <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
   </si>
   <si>
     <t>15,02%</t>
   </si>
   <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
   </si>
   <si>
     <t>80,12%</t>
   </si>
   <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
   </si>
   <si>
     <t>84,98%</t>
   </si>
   <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -359,16 +353,16 @@
     <t>15,58%</t>
   </si>
   <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
   </si>
   <si>
     <t>21,7%</t>
   </si>
   <si>
-    <t>14,81%</t>
+    <t>15,45%</t>
   </si>
   <si>
     <t>25,04%</t>
@@ -377,19 +371,19 @@
     <t>19,22%</t>
   </si>
   <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
   </si>
   <si>
     <t>84,42%</t>
   </si>
   <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
   </si>
   <si>
     <t>78,3%</t>
@@ -398,70 +392,70 @@
     <t>74,96%</t>
   </si>
   <si>
-    <t>85,19%</t>
+    <t>84,55%</t>
   </si>
   <si>
     <t>80,78%</t>
   </si>
   <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
   </si>
   <si>
     <t>7,08%</t>
   </si>
   <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
   </si>
   <si>
     <t>12,66%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
   </si>
   <si>
     <t>10,03%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
   </si>
   <si>
     <t>92,92%</t>
   </si>
   <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
   </si>
   <si>
     <t>87,34%</t>
   </si>
   <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
   </si>
   <si>
     <t>89,97%</t>
   </si>
   <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -876,7 +870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8468DA35-391F-4F7B-806E-D1677202B05B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9E5372-E43C-4745-875A-F5B60499C041}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1623,10 +1617,10 @@
         <v>73</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>191</v>
@@ -1635,13 +1629,13 @@
         <v>118176</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>254</v>
@@ -1650,13 +1644,13 @@
         <v>179056</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1674,10 +1668,10 @@
         <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="H17" s="7">
         <v>810</v>
@@ -1686,13 +1680,13 @@
         <v>476125</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1408</v>
@@ -1701,13 +1695,13 @@
         <v>1013254</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,7 +1757,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1775,13 +1769,13 @@
         <v>108677</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>394</v>
@@ -1790,13 +1784,13 @@
         <v>222497</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>555</v>
@@ -1805,13 +1799,13 @@
         <v>331174</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1823,16 +1817,16 @@
         <v>867</v>
       </c>
       <c r="D20" s="7">
-        <v>589078</v>
+        <v>589077</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>1312</v>
@@ -1841,13 +1835,13 @@
         <v>802859</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>2179</v>
@@ -1856,13 +1850,13 @@
         <v>1391936</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,7 +1868,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1930,13 +1924,13 @@
         <v>239477</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>763</v>
@@ -1945,13 +1939,13 @@
         <v>481577</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>1045</v>
@@ -1960,13 +1954,13 @@
         <v>721054</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,13 +1975,13 @@
         <v>3143603</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>4597</v>
@@ -1996,28 +1990,28 @@
         <v>3321944</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>7689</v>
       </c>
       <c r="N23" s="7">
-        <v>6465548</v>
+        <v>6465547</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,7 +2053,7 @@
         <v>8734</v>
       </c>
       <c r="N24" s="7">
-        <v>7186602</v>
+        <v>7186601</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2073,7 +2067,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R5-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R5-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECC7E2D4-C343-4055-AFA8-D45659F1653B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72C70180-DF30-425B-B598-86E56FA3F372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B0C5C9FB-89AB-4404-A31A-74653B975C4E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4FC9EDB6-0E7F-4AAB-AAE8-C77D69121CE8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="162">
   <si>
     <t>Población que toma algún remedio para dormir (no medicamentos) en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -65,397 +65,460 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>1,82%</t>
+    <t>1,94%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>5,47%</t>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
   </si>
   <si>
     <t>98,7%</t>
   </si>
   <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>19,06%</t>
   </si>
   <si>
     <t>15,45%</t>
   </si>
   <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
   </si>
   <si>
     <t>84,55%</t>
   </si>
   <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -870,8 +933,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9E5372-E43C-4745-875A-F5B60499C041}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7AA3DA-21B4-4713-82C1-3D300176F41D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -991,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>6861</v>
+        <v>7755</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1006,7 +1069,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>13596</v>
+        <v>11133</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1021,7 +1084,7 @@
         <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>20458</v>
+        <v>18888</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1042,7 +1105,7 @@
         <v>170</v>
       </c>
       <c r="D5" s="7">
-        <v>370818</v>
+        <v>392232</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1057,7 +1120,7 @@
         <v>201</v>
       </c>
       <c r="I5" s="7">
-        <v>341361</v>
+        <v>302067</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1072,7 +1135,7 @@
         <v>371</v>
       </c>
       <c r="N5" s="7">
-        <v>712178</v>
+        <v>694299</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1093,7 +1156,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1108,7 +1171,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1123,7 +1186,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1146,7 +1209,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>3992</v>
+        <v>3477</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1161,7 +1224,7 @@
         <v>14</v>
       </c>
       <c r="I7" s="7">
-        <v>14762</v>
+        <v>12962</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1176,7 +1239,7 @@
         <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>18754</v>
+        <v>16439</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1197,7 +1260,7 @@
         <v>298</v>
       </c>
       <c r="D8" s="7">
-        <v>424404</v>
+        <v>420070</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1212,7 +1275,7 @@
         <v>446</v>
       </c>
       <c r="I8" s="7">
-        <v>483815</v>
+        <v>498542</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1227,7 +1290,7 @@
         <v>744</v>
       </c>
       <c r="N8" s="7">
-        <v>908219</v>
+        <v>918612</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1248,7 +1311,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1263,7 +1326,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1278,7 +1341,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1301,7 +1364,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>22447</v>
+        <v>20329</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1316,7 +1379,7 @@
         <v>53</v>
       </c>
       <c r="I10" s="7">
-        <v>36543</v>
+        <v>33663</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1331,7 +1394,7 @@
         <v>72</v>
       </c>
       <c r="N10" s="7">
-        <v>58991</v>
+        <v>53992</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1352,7 +1415,7 @@
         <v>527</v>
       </c>
       <c r="D11" s="7">
-        <v>534805</v>
+        <v>516009</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1367,7 +1430,7 @@
         <v>793</v>
       </c>
       <c r="I11" s="7">
-        <v>546933</v>
+        <v>508805</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1382,7 +1445,7 @@
         <v>1320</v>
       </c>
       <c r="N11" s="7">
-        <v>1081736</v>
+        <v>1024814</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1403,7 +1466,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1418,7 +1481,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1433,7 +1496,7 @@
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1456,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>36620</v>
+        <v>34308</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1471,7 +1534,7 @@
         <v>105</v>
       </c>
       <c r="I13" s="7">
-        <v>76002</v>
+        <v>68160</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1486,7 +1549,7 @@
         <v>138</v>
       </c>
       <c r="N13" s="7">
-        <v>112622</v>
+        <v>102468</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1507,7 +1570,7 @@
         <v>632</v>
       </c>
       <c r="D14" s="7">
-        <v>687370</v>
+        <v>853478</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1522,7 +1585,7 @@
         <v>1035</v>
       </c>
       <c r="I14" s="7">
-        <v>670852</v>
+        <v>644338</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1537,7 +1600,7 @@
         <v>1667</v>
       </c>
       <c r="N14" s="7">
-        <v>1358222</v>
+        <v>1497817</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1558,7 +1621,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1573,7 +1636,7 @@
         <v>1140</v>
       </c>
       <c r="I15" s="7">
-        <v>746854</v>
+        <v>712498</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1588,7 +1651,7 @@
         <v>1805</v>
       </c>
       <c r="N15" s="7">
-        <v>1470844</v>
+        <v>1600285</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1611,46 +1674,46 @@
         <v>63</v>
       </c>
       <c r="D16" s="7">
-        <v>60880</v>
+        <v>54825</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>191</v>
       </c>
       <c r="I16" s="7">
-        <v>118176</v>
+        <v>106370</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>254</v>
       </c>
       <c r="N16" s="7">
-        <v>179056</v>
+        <v>161196</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1662,46 +1725,46 @@
         <v>598</v>
       </c>
       <c r="D17" s="7">
-        <v>537129</v>
+        <v>504382</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>810</v>
       </c>
       <c r="I17" s="7">
-        <v>476125</v>
+        <v>439196</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1408</v>
       </c>
       <c r="N17" s="7">
-        <v>1013254</v>
+        <v>943577</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1713,7 +1776,7 @@
         <v>661</v>
       </c>
       <c r="D18" s="7">
-        <v>598009</v>
+        <v>559207</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1728,7 +1791,7 @@
         <v>1001</v>
       </c>
       <c r="I18" s="7">
-        <v>594301</v>
+        <v>545566</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1743,7 +1806,7 @@
         <v>1662</v>
       </c>
       <c r="N18" s="7">
-        <v>1192310</v>
+        <v>1104773</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1757,55 +1820,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="D19" s="7">
-        <v>108677</v>
+        <v>44329</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>394</v>
+        <v>155</v>
       </c>
       <c r="I19" s="7">
-        <v>222497</v>
+        <v>77600</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>555</v>
+        <v>225</v>
       </c>
       <c r="N19" s="7">
-        <v>331174</v>
+        <v>121929</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,49 +1877,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>867</v>
+        <v>500</v>
       </c>
       <c r="D20" s="7">
-        <v>589077</v>
+        <v>323836</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
-        <v>1312</v>
+        <v>671</v>
       </c>
       <c r="I20" s="7">
-        <v>802859</v>
+        <v>530178</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
-        <v>2179</v>
+        <v>1171</v>
       </c>
       <c r="N20" s="7">
-        <v>1391936</v>
+        <v>854014</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,10 +1928,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1880,10 +1943,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1706</v>
+        <v>826</v>
       </c>
       <c r="I21" s="7">
-        <v>1025356</v>
+        <v>607778</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1895,10 +1958,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2734</v>
+        <v>1396</v>
       </c>
       <c r="N21" s="7">
-        <v>1723110</v>
+        <v>975943</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1912,55 +1975,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>282</v>
+        <v>91</v>
       </c>
       <c r="D22" s="7">
-        <v>239477</v>
+        <v>53893</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
-        <v>763</v>
+        <v>239</v>
       </c>
       <c r="I22" s="7">
-        <v>481577</v>
+        <v>117743</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>1045</v>
+        <v>330</v>
       </c>
       <c r="N22" s="7">
-        <v>721054</v>
+        <v>171636</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,49 +2032,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3092</v>
+        <v>367</v>
       </c>
       <c r="D23" s="7">
-        <v>3143603</v>
+        <v>228866</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>4597</v>
+        <v>641</v>
       </c>
       <c r="I23" s="7">
-        <v>3321944</v>
+        <v>307522</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>7689</v>
+        <v>1008</v>
       </c>
       <c r="N23" s="7">
-        <v>6465547</v>
+        <v>536388</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,63 +2083,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>880</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425265</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708024</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>282</v>
+      </c>
+      <c r="D25" s="7">
+        <v>218916</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>763</v>
+      </c>
+      <c r="I25" s="7">
+        <v>427630</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1045</v>
+      </c>
+      <c r="N25" s="7">
+        <v>646547</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3092</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3238875</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4597</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3230649</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7689</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6469523</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3374</v>
       </c>
-      <c r="D24" s="7">
-        <v>3383080</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3457791</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5360</v>
       </c>
-      <c r="I24" s="7">
-        <v>3803521</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3658279</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8734</v>
       </c>
-      <c r="N24" s="7">
-        <v>7186601</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>7116070</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
